--- a/table/createcharacter.xlsx
+++ b/table/createcharacter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MScannot206\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB28AA3-70F4-4F66-9B5F-B25FE41D1279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200FB52-998F-473C-AA32-B9CDF4509A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="758" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="758" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCharacter" sheetId="16" r:id="rId1"/>
@@ -413,10 +413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hiar-3443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hair-5725</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4964,6 +4960,10 @@
   </si>
   <si>
     <t>알이닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair-3443</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4972,7 +4972,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -5093,7 +5093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5101,28 +5101,7 @@
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -5723,7 +5702,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5930,13 +5909,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5987,13 +5966,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -6012,13 +5991,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -6037,13 +6016,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -6062,13 +6041,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -6087,13 +6066,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -6112,13 +6091,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -6137,13 +6116,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -6162,13 +6141,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -6187,13 +6166,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -6212,13 +6191,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -6237,13 +6216,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -6262,13 +6241,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -6287,13 +6266,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -6312,13 +6291,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -6337,13 +6316,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -6362,13 +6341,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -6387,13 +6366,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -6412,13 +6391,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -6437,13 +6416,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -6462,13 +6441,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -6487,13 +6466,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -6512,13 +6491,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -6537,13 +6516,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -6562,13 +6541,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -6587,13 +6566,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -6612,13 +6591,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -6637,13 +6616,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -6662,13 +6641,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -6687,13 +6666,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -6712,13 +6691,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -6737,13 +6716,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -6762,13 +6741,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -6787,13 +6766,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -6812,13 +6791,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -6837,13 +6816,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -6862,13 +6841,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -6887,13 +6866,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -6912,13 +6891,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -6937,13 +6916,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -6962,13 +6941,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -6987,13 +6966,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -7012,13 +6991,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -7037,13 +7016,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -7062,13 +7041,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -7087,13 +7066,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -7112,13 +7091,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -7137,13 +7116,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -7162,13 +7141,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -7187,13 +7166,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -7213,12 +7192,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4:E52">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G52">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7258,13 +7237,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -7315,10 +7294,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -7337,10 +7316,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -7359,10 +7338,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -7381,10 +7360,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -7403,10 +7382,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -7425,10 +7404,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -7447,10 +7426,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -7469,10 +7448,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -7491,10 +7470,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -7513,10 +7492,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -7535,10 +7514,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -7557,10 +7536,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -7579,10 +7558,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -7601,10 +7580,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -7623,10 +7602,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -7645,10 +7624,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -7667,10 +7646,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -7689,10 +7668,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -7711,10 +7690,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -7733,10 +7712,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -7755,10 +7734,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -7777,10 +7756,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -7799,10 +7778,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -7821,10 +7800,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -7843,10 +7822,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -7865,10 +7844,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
@@ -7887,10 +7866,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -7909,10 +7888,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
@@ -7931,10 +7910,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
@@ -7953,10 +7932,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -7975,10 +7954,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -7997,10 +7976,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
@@ -8019,10 +7998,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
@@ -8041,10 +8020,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -8063,10 +8042,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -8085,10 +8064,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -8107,10 +8086,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -8129,10 +8108,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -8151,10 +8130,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -8173,10 +8152,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -8195,10 +8174,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -8217,10 +8196,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -8239,10 +8218,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -8261,10 +8240,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -8283,10 +8262,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -8305,10 +8284,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
@@ -8327,10 +8306,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -8349,10 +8328,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -8371,10 +8350,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -8393,10 +8372,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -8415,10 +8394,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -8437,10 +8416,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -8459,10 +8438,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -8481,10 +8460,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -8503,10 +8482,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -8525,10 +8504,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -8547,10 +8526,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
@@ -8569,10 +8548,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
@@ -8591,10 +8570,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -8613,10 +8592,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D63" s="3">
         <v>1.5</v>
@@ -8635,10 +8614,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D64" s="3">
         <v>1.5</v>
@@ -8657,10 +8636,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D65" s="3">
         <v>1.5</v>
@@ -8679,10 +8658,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D66" s="3">
         <v>1.5</v>
@@ -8701,10 +8680,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D67" s="3">
         <v>1.5</v>
@@ -8723,10 +8702,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D68" s="3">
         <v>1.5</v>
@@ -8745,10 +8724,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -8767,10 +8746,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -8789,10 +8768,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -8811,10 +8790,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
@@ -8833,10 +8812,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -8855,10 +8834,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
@@ -8877,10 +8856,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -8899,10 +8878,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -8921,10 +8900,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -8943,10 +8922,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -8965,10 +8944,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -8987,10 +8966,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
@@ -9009,10 +8988,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
@@ -9031,10 +9010,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -9053,10 +9032,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
@@ -9075,10 +9054,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -9097,10 +9076,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D85" s="3">
         <v>2</v>
@@ -9119,10 +9098,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D86" s="3">
         <v>1</v>
@@ -9141,10 +9120,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D87" s="3">
         <v>1</v>
@@ -9163,10 +9142,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D88" s="3">
         <v>2</v>
@@ -9185,10 +9164,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
@@ -9207,10 +9186,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D90" s="3">
         <v>2</v>
@@ -9229,10 +9208,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -9251,10 +9230,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D92" s="3">
         <v>2</v>
@@ -9273,10 +9252,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D93" s="3">
         <v>1</v>
@@ -9295,10 +9274,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D94" s="3">
         <v>1</v>
@@ -9317,10 +9296,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
@@ -9339,10 +9318,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D96" s="3">
         <v>1</v>
@@ -9361,10 +9340,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
@@ -9383,10 +9362,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
@@ -9405,10 +9384,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
@@ -9427,10 +9406,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -9449,10 +9428,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D101" s="3">
         <v>1</v>
@@ -9471,10 +9450,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D102" s="3">
         <v>1</v>
@@ -9493,10 +9472,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D103" s="3">
         <v>1</v>
@@ -9515,10 +9494,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D104" s="3">
         <v>2</v>
@@ -9537,10 +9516,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D105" s="3">
         <v>2</v>
@@ -9560,16 +9539,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4:E105">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G52">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:G105">
+  <conditionalFormatting sqref="G4:G105">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -9610,13 +9584,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9667,10 +9641,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -9689,10 +9663,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -9711,10 +9685,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -9733,10 +9707,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -9755,10 +9729,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -9777,10 +9751,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -9799,10 +9773,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -9821,10 +9795,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -9843,10 +9817,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -9865,10 +9839,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -9887,10 +9861,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
@@ -9909,10 +9883,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -9931,10 +9905,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -9953,10 +9927,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -9975,10 +9949,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -9997,10 +9971,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -10019,10 +9993,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -10041,10 +10015,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -10063,10 +10037,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -10085,10 +10059,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -10107,10 +10081,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -10129,10 +10103,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -10151,10 +10125,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -10173,10 +10147,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -10195,10 +10169,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -10217,10 +10191,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -10239,10 +10213,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -10261,10 +10235,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -10283,10 +10257,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -10305,10 +10279,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -10327,10 +10301,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -10349,10 +10323,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -10371,10 +10345,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -10393,10 +10367,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -10415,10 +10389,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -10437,10 +10411,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -10459,10 +10433,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -10481,10 +10455,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -10503,10 +10477,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -10525,10 +10499,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -10547,10 +10521,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -10569,10 +10543,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -10591,10 +10565,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -10613,10 +10587,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -10635,10 +10609,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D48" s="3">
         <v>0.1</v>
@@ -10657,10 +10631,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -10679,10 +10653,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -10701,10 +10675,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -10723,10 +10697,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -10745,10 +10719,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -10767,10 +10741,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -10789,10 +10763,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -10811,10 +10785,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -10833,10 +10807,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -10855,10 +10829,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -10877,10 +10851,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -10899,10 +10873,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
@@ -10921,10 +10895,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -10943,10 +10917,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -10965,10 +10939,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
@@ -10987,10 +10961,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -11009,10 +10983,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
@@ -11031,10 +11005,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -11053,10 +11027,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -11075,10 +11049,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -11097,16 +11071,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" ref="E69:G105" si="1">D69/SUM(D$4:D$1048576)</f>
+        <f t="shared" ref="E69:G80" si="1">D69/SUM(D$4:D$1048576)</f>
         <v>1.1750881316098707E-2</v>
       </c>
       <c r="F69" s="3">
@@ -11119,10 +11093,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -11141,10 +11115,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -11163,10 +11137,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
@@ -11185,10 +11159,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -11207,10 +11181,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
@@ -11229,10 +11203,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -11251,10 +11225,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -11273,10 +11247,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -11295,10 +11269,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -11317,10 +11291,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -11339,10 +11313,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
@@ -11407,13 +11381,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -11464,10 +11438,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -11486,16 +11460,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:G68" si="0">D5/SUM(D$4:D$1048576)</f>
+        <f t="shared" ref="E5:G20" si="0">D5/SUM(D$4:D$1048576)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="F5" s="3">
@@ -11508,10 +11482,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -11530,10 +11504,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -11552,10 +11526,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -11574,10 +11548,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -11596,10 +11570,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -11618,10 +11592,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -11640,10 +11614,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -11662,10 +11636,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -11684,10 +11658,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -11706,10 +11680,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -11728,10 +11702,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -11750,10 +11724,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -11772,10 +11746,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -11794,10 +11768,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -11816,10 +11790,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -11884,13 +11858,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -11941,10 +11915,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="3">
         <v>0.01</v>
@@ -11963,10 +11937,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D5" s="3">
         <v>0.01</v>
@@ -11985,10 +11959,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="3">
         <v>0.01</v>
@@ -12007,10 +11981,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D7" s="3">
         <v>0.01</v>
@@ -12029,10 +12003,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D8" s="3">
         <v>0.01</v>
@@ -12051,10 +12025,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D9" s="3">
         <v>0.01</v>
@@ -12073,10 +12047,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D10" s="3">
         <v>0.01</v>
@@ -12095,10 +12069,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D11" s="3">
         <v>0.01</v>
@@ -12117,10 +12091,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D12" s="3">
         <v>0.01</v>
@@ -12139,10 +12113,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D13" s="3">
         <v>0.01</v>
@@ -12161,10 +12135,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="3">
         <v>0.01</v>
@@ -12183,10 +12157,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D15" s="3">
         <v>0.01</v>
@@ -12205,10 +12179,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D16" s="3">
         <v>0.01</v>
@@ -12227,10 +12201,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D17" s="3">
         <v>0.01</v>
@@ -12249,10 +12223,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D18" s="3">
         <v>0.01</v>
@@ -12271,10 +12245,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D19" s="3">
         <v>0.01</v>
@@ -12293,10 +12267,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D20" s="3">
         <v>0.01</v>
@@ -12315,10 +12289,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D21" s="3">
         <v>0.01</v>
@@ -12337,10 +12311,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D22" s="3">
         <v>0.01</v>
@@ -12359,10 +12333,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D23" s="3">
         <v>0.01</v>
@@ -12381,10 +12355,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D24" s="3">
         <v>0.01</v>
@@ -12403,10 +12377,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D25" s="3">
         <v>0.01</v>
@@ -12425,10 +12399,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D26" s="3">
         <v>0.01</v>
@@ -12447,10 +12421,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D27" s="3">
         <v>0.01</v>
@@ -12469,10 +12443,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D28" s="3">
         <v>0.01</v>
@@ -12491,10 +12465,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D29" s="3">
         <v>0.01</v>
@@ -12513,10 +12487,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D30" s="3">
         <v>0.01</v>
@@ -12535,10 +12509,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D31" s="3">
         <v>0.01</v>
@@ -12557,10 +12531,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D32" s="3">
         <v>0.01</v>
@@ -12579,10 +12553,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D33" s="3">
         <v>0.01</v>
@@ -12601,10 +12575,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D34" s="3">
         <v>0.01</v>
@@ -12669,13 +12643,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -12726,10 +12700,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -12748,10 +12722,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -12770,10 +12744,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -12792,10 +12766,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -12814,10 +12788,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -12836,10 +12810,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -12858,10 +12832,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -12880,10 +12854,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -12902,10 +12876,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -12924,10 +12898,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -12946,10 +12920,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -12968,10 +12942,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -12990,10 +12964,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -13012,10 +12986,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -13034,10 +13008,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -13056,10 +13030,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -13078,10 +13052,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -13100,10 +13074,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -13122,10 +13096,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -13144,10 +13118,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -13166,10 +13140,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -13188,10 +13162,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D25" s="3">
         <v>0.5</v>
@@ -13210,10 +13184,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -13232,10 +13206,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -13254,10 +13228,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -13276,10 +13250,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -13298,10 +13272,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -13320,10 +13294,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -13342,10 +13316,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -13364,10 +13338,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -13386,10 +13360,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D34" s="3">
         <v>0.5</v>
@@ -13408,10 +13382,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -13430,10 +13404,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -13452,10 +13426,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -13474,10 +13448,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D38" s="3">
         <v>0.5</v>
@@ -13496,10 +13470,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -13518,10 +13492,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -13540,10 +13514,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -13562,10 +13536,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D42" s="3">
         <v>0.1</v>
@@ -13603,7 +13577,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13630,13 +13604,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -13687,10 +13661,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -13709,16 +13683,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:G42" si="0">D5/SUM(D$4:D$1048576)</f>
+        <f t="shared" ref="E5:G6" si="0">D5/SUM(D$4:D$1048576)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F5" s="3">
@@ -13731,10 +13705,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -13799,13 +13773,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -13990,13 +13964,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -14462,10 +14436,10 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -14493,13 +14467,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -14553,7 +14527,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -14575,7 +14549,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -14597,7 +14571,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -14619,7 +14593,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -14638,10 +14612,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>1235</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -14660,10 +14634,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -14682,10 +14656,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -14704,10 +14678,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -14726,10 +14700,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -14748,10 +14722,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -14770,10 +14744,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -14792,10 +14766,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -14814,10 +14788,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -14836,10 +14810,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -14858,10 +14832,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -14880,10 +14854,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -14902,10 +14876,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -14924,10 +14898,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -14946,10 +14920,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -14968,10 +14942,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -14990,10 +14964,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -15012,10 +14986,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -15034,10 +15008,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -15056,10 +15030,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -15078,10 +15052,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -15100,10 +15074,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -15122,10 +15096,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -15144,10 +15118,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -15166,10 +15140,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -15188,10 +15162,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -15210,10 +15184,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -15235,7 +15209,7 @@
         <v>73</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -15254,10 +15228,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -15276,10 +15250,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -15298,10 +15272,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -15320,10 +15294,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -15342,10 +15316,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -15364,10 +15338,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -15386,10 +15360,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -15408,10 +15382,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -15430,10 +15404,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -15452,10 +15426,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -15474,10 +15448,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -15496,10 +15470,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -15518,10 +15492,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -15540,10 +15514,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -15562,10 +15536,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -15584,10 +15558,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -15606,10 +15580,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -15628,10 +15602,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -15650,10 +15624,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -15672,10 +15646,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -15694,10 +15668,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -15716,10 +15690,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
@@ -15738,10 +15712,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -15760,10 +15734,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -15782,10 +15756,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -15804,10 +15778,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
@@ -15826,10 +15800,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -15848,10 +15822,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -15870,10 +15844,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
@@ -15892,10 +15866,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -15914,10 +15888,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
@@ -15936,10 +15910,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -15958,10 +15932,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -15980,10 +15954,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -16002,10 +15976,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -16024,10 +15998,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
@@ -16046,10 +16020,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -16068,10 +16042,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -16090,10 +16064,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -16112,10 +16086,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -16134,10 +16108,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -16156,10 +16130,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
@@ -16178,10 +16152,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
@@ -16200,10 +16174,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -16222,10 +16196,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -16244,10 +16218,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
@@ -16266,10 +16240,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -16288,10 +16262,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
@@ -16311,12 +16285,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4:E83">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G83">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16329,8 +16303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68840E3B-7E1E-47D8-883C-8737496B7E33}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E20" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16357,13 +16331,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -16414,10 +16388,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -16436,10 +16410,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -16452,16 +16426,16 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G51" si="1">F5/SUM(F$4:F$1048576)</f>
+        <f t="shared" ref="G5:G50" si="1">F5/SUM(F$4:F$1048576)</f>
         <v>3.7878787878787884E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -16480,10 +16454,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -16502,10 +16476,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -16524,10 +16498,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -16546,10 +16520,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -16568,10 +16542,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -16590,10 +16564,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -16612,10 +16586,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -16634,10 +16608,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -16656,10 +16630,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -16678,10 +16652,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -16700,10 +16674,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -16722,10 +16696,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -16744,10 +16718,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -16766,10 +16740,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -16788,10 +16762,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -16810,10 +16784,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -16832,10 +16806,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -16854,10 +16828,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -16876,10 +16850,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -16898,10 +16872,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -16920,10 +16894,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -16942,10 +16916,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D28" s="3">
         <v>0.1</v>
@@ -16964,10 +16938,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="3">
         <v>0.1</v>
@@ -16986,10 +16960,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D30" s="3">
         <v>0.1</v>
@@ -17008,10 +16982,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D31" s="3">
         <v>0.1</v>
@@ -17030,10 +17004,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D32" s="3">
         <v>0.1</v>
@@ -17052,10 +17026,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D33" s="3">
         <v>0.1</v>
@@ -17074,10 +17048,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" s="3">
         <v>0.1</v>
@@ -17096,10 +17070,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D35" s="3">
         <v>0.1</v>
@@ -17118,10 +17092,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="3">
         <v>0.1</v>
@@ -17140,10 +17114,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D37" s="3">
         <v>0.1</v>
@@ -17162,10 +17136,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D38" s="3">
         <v>0.1</v>
@@ -17184,10 +17158,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D39" s="3">
         <v>0.1</v>
@@ -17206,10 +17180,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D40" s="3">
         <v>0.1</v>
@@ -17228,10 +17202,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D41" s="3">
         <v>0.1</v>
@@ -17250,10 +17224,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D42" s="3">
         <v>0.1</v>
@@ -17272,10 +17246,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D43" s="3">
         <v>0.1</v>
@@ -17294,10 +17268,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D44" s="3">
         <v>0.1</v>
@@ -17316,10 +17290,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D45" s="3">
         <v>0.1</v>
@@ -17338,10 +17312,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D46" s="3">
         <v>0.1</v>
@@ -17360,10 +17334,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D47" s="3">
         <v>0.1</v>
@@ -17382,10 +17356,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D48" s="3">
         <v>0.1</v>
@@ -17404,10 +17378,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D49" s="3">
         <v>0.1</v>
@@ -17426,10 +17400,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D50" s="3">
         <v>0.1</v>
@@ -17448,10 +17422,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D51" s="3">
         <v>0.1</v>
@@ -17471,7 +17445,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4:E51 G4:G51">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17484,7 +17458,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17508,13 +17482,13 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17559,10 +17533,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -17581,16 +17555,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:F51" si="0">C5/SUM(C$4:C$1048576)</f>
+        <f t="shared" ref="D5:F22" si="0">C5/SUM(C$4:C$1048576)</f>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="E5" s="3">
@@ -17603,10 +17577,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -17625,10 +17599,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -17647,10 +17621,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -17669,10 +17643,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -17691,10 +17665,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -17713,10 +17687,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -17735,10 +17709,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -17757,10 +17731,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -17779,10 +17753,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -17801,10 +17775,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -17823,10 +17797,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -17845,10 +17819,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -17867,10 +17841,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -17889,10 +17863,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -17911,10 +17885,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -17933,10 +17907,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -17955,10 +17929,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -17978,12 +17952,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D22">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F22">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18023,13 +17997,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -18080,10 +18054,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -18102,16 +18076,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:G22" si="0">D5/SUM(D$4:D$1048576)</f>
+        <f t="shared" ref="E5:G12" si="0">D5/SUM(D$4:D$1048576)</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="F5" s="3">
@@ -18124,10 +18098,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -18146,10 +18120,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -18168,10 +18142,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -18190,10 +18164,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -18212,10 +18186,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -18234,10 +18208,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -18256,10 +18230,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -18279,12 +18253,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G12">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18297,7 +18271,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18324,13 +18298,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -18381,10 +18355,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -18403,10 +18377,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -18425,10 +18399,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -18447,10 +18421,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -18469,10 +18443,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -18491,10 +18465,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -18513,10 +18487,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -18535,10 +18509,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -18557,10 +18531,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -18579,10 +18553,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -18601,10 +18575,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -18623,10 +18597,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -18645,10 +18619,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -18667,10 +18641,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -18689,10 +18663,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -18711,10 +18685,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -18733,10 +18707,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -18755,10 +18729,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -18777,10 +18751,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -18799,10 +18773,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -18821,10 +18795,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -18843,10 +18817,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -18865,10 +18839,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -18887,10 +18861,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -18909,10 +18883,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -18931,10 +18905,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -18953,10 +18927,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -18975,10 +18949,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -18997,10 +18971,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -19019,10 +18993,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -19041,10 +19015,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -19064,12 +19038,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19081,8 +19055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2138B5B9-B75A-4A2A-8840-54A97483FBB0}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E16" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19109,13 +19083,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -19166,10 +19140,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -19188,10 +19162,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -19210,10 +19184,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -19232,10 +19206,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -19254,10 +19228,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -19276,10 +19250,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -19298,10 +19272,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -19320,10 +19294,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -19342,10 +19316,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -19364,10 +19338,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -19386,10 +19360,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -19408,10 +19382,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -19430,10 +19404,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -19452,10 +19426,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -19474,10 +19448,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -19496,10 +19470,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -19518,10 +19492,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -19540,10 +19514,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -19562,10 +19536,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -19584,10 +19558,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -19606,10 +19580,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -19628,10 +19602,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -19650,10 +19624,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -19672,10 +19646,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -19694,10 +19668,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -19716,10 +19690,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -19738,10 +19712,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -19760,10 +19734,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -19782,10 +19756,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -19804,10 +19778,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -19826,10 +19800,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -19849,12 +19823,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19866,8 +19840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046CA96F-C25B-4413-83C0-2746D2129A89}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19894,13 +19868,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -19951,10 +19925,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -19973,10 +19947,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -19995,10 +19969,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -20017,10 +19991,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -20039,10 +20013,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -20061,10 +20035,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -20083,10 +20057,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -20105,10 +20079,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -20127,10 +20101,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -20149,10 +20123,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -20171,10 +20145,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -20193,10 +20167,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -20215,10 +20189,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -20237,10 +20211,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -20259,13 +20233,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -20284,10 +20258,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -20306,10 +20280,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -20328,10 +20302,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -20350,10 +20324,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -20372,10 +20346,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -20394,10 +20368,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -20416,10 +20390,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -20438,10 +20412,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -20460,10 +20434,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -20482,10 +20456,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -20504,10 +20478,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -20526,10 +20500,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -20548,13 +20522,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -20573,13 +20547,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -20598,13 +20572,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -20623,13 +20597,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -20648,10 +20622,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -20670,10 +20644,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -20692,10 +20666,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -20714,10 +20688,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -20736,10 +20710,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -20758,10 +20732,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -20781,12 +20755,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4:E40">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G40">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20799,7 +20773,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20826,13 +20800,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -20883,10 +20857,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -20905,16 +20879,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:G40" si="0">D5/SUM(D$4:D$1048576)</f>
+        <f t="shared" ref="E5:G24" si="0">D5/SUM(D$4:D$1048576)</f>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="F5" s="3">
@@ -20927,10 +20901,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -20949,10 +20923,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -20971,10 +20945,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -20993,10 +20967,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -21015,10 +20989,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -21037,10 +21011,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -21059,10 +21033,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -21081,10 +21055,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -21103,10 +21077,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -21125,10 +21099,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -21147,10 +21121,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -21169,10 +21143,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -21191,10 +21165,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -21213,10 +21187,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -21235,10 +21209,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -21257,10 +21231,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -21279,10 +21253,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -21301,10 +21275,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -21323,10 +21297,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -21346,12 +21320,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4:E24">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G24">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/table/createcharacter.xlsx
+++ b/table/createcharacter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MScannot206\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200FB52-998F-473C-AA32-B9CDF4509A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D87578-3293-4E6C-B248-C3EC253323A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="758" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="758" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCharacter" sheetId="16" r:id="rId1"/>
@@ -57,6 +57,7 @@
   <authors>
     <author>tc={DD514A0E-B3A8-4859-BCE1-ED7188CCD514}</author>
     <author>tc={1EE4A2D5-CB0A-48AB-9A61-A1497F7398C2}</author>
+    <author>tc={F9836DD2-6FC9-42C8-A7C3-E29A38D73B86}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DD514A0E-B3A8-4859-BCE1-ED7188CCD514}">
@@ -94,6 +95,14 @@
 1 = 100%</t>
       </text>
     </comment>
+    <comment ref="A18" authorId="2" shapeId="0" xr:uid="{F9836DD2-6FC9-42C8-A7C3-E29A38D73B86}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Item 테이블의 Category에서 subweapon 및 shield에 해당하는 아이템이 등장합니다.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -4974,7 +4983,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5014,6 +5023,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5694,6 +5709,9 @@
     <text>없음이 나오지 않을 확률
 1 = 100%</text>
   </threadedComment>
+  <threadedComment ref="A18" dT="2026-02-20T18:40:26.51" personId="{9E9A0573-1A0E-4C06-862F-2BD66292B020}" id="{F9836DD2-6FC9-42C8-A7C3-E29A38D73B86}">
+    <text>Item 테이블의 Category에서 subweapon 및 shield에 해당하는 아이템이 등장합니다.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -5702,7 +5720,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13577,7 +13595,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/table/createcharacter.xlsx
+++ b/table/createcharacter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MScannot206\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206Server\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D87578-3293-4E6C-B248-C3EC253323A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9403A7-C87B-4C9F-A6AF-6A16E634BF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="758" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="57480" yWindow="-1740" windowWidth="29040" windowHeight="17640" tabRatio="758" firstSheet="15" activeTab="15" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCharacter" sheetId="16" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1239">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4974,6 +4974,17 @@
   <si>
     <t>hair-3443</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -4983,7 +4994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5023,12 +5034,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5719,8 +5724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EDCECF-0730-4C9B-AABD-775973F9EC3A}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13592,23 +13597,24 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70B9AF-0125-4C02-89C4-CC0DB1052C5E}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5" style="3" customWidth="1"/>
     <col min="2" max="3" width="28.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13619,19 +13625,22 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13642,19 +13651,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -13665,92 +13677,104 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>1238</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1131</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <f>D4/SUM(D$4:D$1048576)</f>
+      <c r="D4" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <f>E4/SUM(E$4:E$1048576)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4/SUM(F$4:F$1048576)</f>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>G4/SUM(G$4:G$1048576)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1132</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:G6" si="0">D5/SUM(D$4:D$1048576)</f>
+      <c r="D5" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:H6" si="0">E5/SUM(E$4:E$1048576)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1133</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E4:E6">
+  <conditionalFormatting sqref="F4:F6">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
+  <conditionalFormatting sqref="H4:H6">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -13764,7 +13788,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/table/createcharacter.xlsx
+++ b/table/createcharacter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206Server\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9403A7-C87B-4C9F-A6AF-6A16E634BF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A216C3E3-1956-4739-9393-693593B1AA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1740" windowWidth="29040" windowHeight="17640" tabRatio="758" firstSheet="15" activeTab="15" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="758" firstSheet="13" activeTab="14" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCharacter" sheetId="16" r:id="rId1"/>
@@ -4243,10 +4243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>죽창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4985,6 +4981,10 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>낚싯대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5932,13 +5932,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -7260,13 +7260,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9607,13 +9607,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -11404,13 +11404,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -11881,13 +11881,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -11938,7 +11938,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1000</v>
@@ -11960,7 +11960,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1001</v>
@@ -11982,7 +11982,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1002</v>
@@ -12004,7 +12004,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1003</v>
@@ -12026,7 +12026,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1004</v>
@@ -12048,7 +12048,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1005</v>
@@ -12070,7 +12070,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1006</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1007</v>
@@ -12114,7 +12114,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1008</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1009</v>
@@ -12158,7 +12158,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1010</v>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1011</v>
@@ -12202,7 +12202,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1012</v>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>1013</v>
@@ -12246,7 +12246,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1014</v>
@@ -12268,7 +12268,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1015</v>
@@ -12290,7 +12290,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1016</v>
@@ -12312,7 +12312,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1017</v>
@@ -12334,7 +12334,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1018</v>
@@ -12356,7 +12356,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1019</v>
@@ -12378,7 +12378,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1020</v>
@@ -12400,7 +12400,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1021</v>
@@ -12422,7 +12422,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1022</v>
@@ -12444,7 +12444,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>1023</v>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>1024</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1025</v>
@@ -12510,7 +12510,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1026</v>
@@ -12532,7 +12532,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1027</v>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1028</v>
@@ -12576,7 +12576,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1029</v>
@@ -12598,7 +12598,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1030</v>
@@ -12638,8 +12638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011853E9-0CB2-48B7-A391-AA534B36660E}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12666,13 +12666,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -12723,7 +12723,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1031</v>
@@ -12745,7 +12745,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1032</v>
@@ -12767,10 +12767,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -12789,10 +12789,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -12811,10 +12811,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -12833,10 +12833,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -12855,10 +12855,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -12877,10 +12877,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -12899,10 +12899,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -12921,7 +12921,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1033</v>
@@ -12943,10 +12943,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -12965,10 +12965,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -12987,10 +12987,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -13009,10 +13009,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -13031,10 +13031,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -13053,10 +13053,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -13075,10 +13075,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -13097,10 +13097,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -13119,10 +13119,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -13141,10 +13141,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -13163,10 +13163,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -13185,10 +13185,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1034</v>
+        <v>1238</v>
       </c>
       <c r="D25" s="3">
         <v>0.5</v>
@@ -13207,10 +13207,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -13229,10 +13229,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -13251,10 +13251,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -13273,10 +13273,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -13295,10 +13295,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -13317,10 +13317,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -13339,10 +13339,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -13361,10 +13361,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -13383,10 +13383,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D34" s="3">
         <v>0.5</v>
@@ -13405,10 +13405,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -13427,10 +13427,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -13449,10 +13449,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -13471,10 +13471,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D38" s="3">
         <v>0.5</v>
@@ -13493,10 +13493,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -13515,10 +13515,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -13537,10 +13537,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -13559,10 +13559,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D42" s="3">
         <v>0.1</v>
@@ -13599,7 +13599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70B9AF-0125-4C02-89C4-CC0DB1052C5E}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -13625,19 +13625,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -13677,7 +13677,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -13694,13 +13694,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -13719,13 +13719,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -13744,10 +13744,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>24</v>
@@ -13815,13 +13815,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -14006,13 +14006,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -14509,13 +14509,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -14654,7 +14654,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>92</v>
@@ -16373,13 +16373,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -16430,7 +16430,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>232</v>
@@ -16452,7 +16452,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>233</v>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>238</v>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>235</v>
@@ -16518,7 +16518,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>236</v>
@@ -16540,7 +16540,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>271</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>234</v>
@@ -16584,7 +16584,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>237</v>
@@ -16606,7 +16606,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>239</v>
@@ -16628,7 +16628,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>233</v>
@@ -16650,7 +16650,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>236</v>
@@ -16672,7 +16672,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>232</v>
@@ -16694,7 +16694,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>238</v>
@@ -16716,7 +16716,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>271</v>
@@ -16738,7 +16738,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>235</v>
@@ -16760,7 +16760,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>234</v>
@@ -16782,7 +16782,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>240</v>
@@ -16804,7 +16804,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>241</v>
@@ -16826,7 +16826,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>242</v>
@@ -16848,7 +16848,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>243</v>
@@ -16870,7 +16870,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>272</v>
@@ -16892,7 +16892,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>244</v>
@@ -16914,7 +16914,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>245</v>
@@ -16936,7 +16936,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>246</v>
@@ -16958,7 +16958,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>271</v>
@@ -16980,7 +16980,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>238</v>
@@ -17002,7 +17002,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>237</v>
@@ -17024,7 +17024,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>232</v>
@@ -17046,7 +17046,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>234</v>
@@ -17068,7 +17068,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>233</v>
@@ -17090,7 +17090,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>236</v>
@@ -17112,7 +17112,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>235</v>
@@ -17134,7 +17134,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>246</v>
@@ -17156,7 +17156,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>242</v>
@@ -17178,7 +17178,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>243</v>
@@ -17200,7 +17200,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>240</v>
@@ -17222,7 +17222,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>272</v>
@@ -17244,7 +17244,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>245</v>
@@ -17266,7 +17266,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>241</v>
@@ -17288,7 +17288,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>247</v>
@@ -17310,7 +17310,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>248</v>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>249</v>
@@ -17354,7 +17354,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>250</v>
@@ -17376,7 +17376,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>251</v>
@@ -17398,7 +17398,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>252</v>
@@ -17420,7 +17420,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>253</v>
@@ -17442,7 +17442,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>273</v>
@@ -17464,7 +17464,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>254</v>
@@ -17524,13 +17524,13 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -18039,13 +18039,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -18340,13 +18340,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -18749,7 +18749,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>316</v>
@@ -18771,7 +18771,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>317</v>
@@ -18793,7 +18793,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>320</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>325</v>
@@ -18837,7 +18837,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>326</v>
@@ -18859,7 +18859,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>328</v>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>329</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>330</v>
@@ -18925,7 +18925,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>331</v>
@@ -18947,7 +18947,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>332</v>
@@ -18969,7 +18969,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>333</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>334</v>
@@ -19013,7 +19013,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>342</v>
@@ -19035,7 +19035,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>343</v>
@@ -19057,7 +19057,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>345</v>
@@ -19125,13 +19125,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -19490,7 +19490,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>374</v>
@@ -19512,7 +19512,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>373</v>
@@ -19534,7 +19534,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>363</v>
@@ -19556,7 +19556,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>365</v>
@@ -19578,7 +19578,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>368</v>
@@ -19600,7 +19600,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>366</v>
@@ -19622,7 +19622,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>367</v>
@@ -19644,7 +19644,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>369</v>
@@ -19666,7 +19666,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>371</v>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>372</v>
@@ -19710,7 +19710,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>403</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>384</v>
@@ -19754,7 +19754,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>385</v>
@@ -19776,7 +19776,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>386</v>
@@ -19798,7 +19798,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>387</v>
@@ -19820,7 +19820,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>389</v>
@@ -19842,7 +19842,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>390</v>
@@ -19910,13 +19910,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -20058,7 +20058,7 @@
         <v>443</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -20281,7 +20281,7 @@
         <v>417</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -20498,7 +20498,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>427</v>
@@ -20520,7 +20520,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>428</v>
@@ -20564,13 +20564,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>430</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -20589,13 +20589,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>431</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -20614,13 +20614,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>432</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -20639,13 +20639,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>433</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -20842,13 +20842,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
